--- a/biology/Médecine/Crospovidone/Crospovidone.xlsx
+++ b/biology/Médecine/Crospovidone/Crospovidone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La crospovidone, aussi appelée polyvinylpolypyrrolidone (sigle PVPP) ou E1202, est une polyvinylpyrrolidone (PVP) réticulée, insoluble.
@@ -513,7 +525,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle présente une forte affinité pour les polyphénols. Cette propriété est utilisée pour le collage des boissons, car elle élimine en particulier les tanins, les acides cinnamiques oxydables ou les quinones issues de leur oxydation, ce qui permet de traiter les phénomènes de brunissement, de rosissement, les excès de coloration ou d'amertume.
 La PVPP est utilisée dans les vins comme « colle ». Elle a été utilisée dès 1961 dans le traitement de la bière ; son emploi sur moût et vin (essentiellement blanc et rosé) est autorisé par le règlement CE no 1493/99 à la dose maximale de 80 g/hL. Elle peut être utilisée comme adjuvant lors de la filtration sur terre. Les vins traités à la PVPP sont interdits pour l'exportation vers le Japon.
